--- a/TGU/Практика 3/Тестовая документация.xlsx
+++ b/TGU/Практика 3/Тестовая документация.xlsx
@@ -42,7 +42,7 @@
     <t xml:space="preserve">Проверка главной страницы</t>
   </si>
   <si>
-    <t xml:space="preserve">Blocked</t>
+    <t xml:space="preserve">Skipped</t>
   </si>
   <si>
     <t xml:space="preserve">Проверка наличия элементов, функционала кнопок и ссылок, дизайна страницы и элементов</t>
@@ -5165,9 +5165,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>56880</xdr:colOff>
+      <xdr:colOff>56520</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>1014840</xdr:rowOff>
+      <xdr:rowOff>1014480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5180,8 +5180,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11342880" y="4136040"/>
-          <a:ext cx="3466080" cy="886680"/>
+          <a:off x="11343600" y="4136040"/>
+          <a:ext cx="3465720" cy="886320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5202,9 +5202,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>197640</xdr:colOff>
+      <xdr:colOff>197280</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>466920</xdr:rowOff>
+      <xdr:rowOff>466560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5217,8 +5217,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11161440" y="340920"/>
-          <a:ext cx="4404240" cy="466920"/>
+          <a:off x="11162160" y="340920"/>
+          <a:ext cx="4404600" cy="466560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5239,9 +5239,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>374760</xdr:colOff>
+      <xdr:colOff>374400</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>969840</xdr:rowOff>
+      <xdr:rowOff>969480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5254,8 +5254,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11229840" y="792000"/>
-          <a:ext cx="1740600" cy="518760"/>
+          <a:off x="11230560" y="792000"/>
+          <a:ext cx="1740240" cy="518400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5277,8 +5277,8 @@
   </sheetPr>
   <dimension ref="A1:E138"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A70" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C42" activeCellId="0" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="16.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5682,8 +5682,8 @@
       <c r="B41" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="C41" s="8" t="s">
-        <v>5</v>
+      <c r="C41" s="10" t="s">
+        <v>8</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>34</v>
@@ -6498,7 +6498,7 @@
       <selection pane="bottomRight" activeCell="E6" activeCellId="0" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="59.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="59.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="22" width="14.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="22" width="73.78"/>
@@ -15016,7 +15016,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="22" width="38.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="22" width="22.78"/>
